--- a/Asset Lists/Asset_List_Codes.xlsx
+++ b/Asset Lists/Asset_List_Codes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Artists" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
   <si>
     <t>Assetlist</t>
   </si>
   <si>
-    <t>Art Assets</t>
-  </si>
-  <si>
     <t>Playercontroller</t>
   </si>
   <si>
@@ -54,24 +51,6 @@
     <t>Boss_1</t>
   </si>
   <si>
-    <t>LCreepMelee</t>
-  </si>
-  <si>
-    <t>LCreepRanged</t>
-  </si>
-  <si>
-    <t>LCreepSuper</t>
-  </si>
-  <si>
-    <t>JCreepMelee</t>
-  </si>
-  <si>
-    <t>JCreepRanged</t>
-  </si>
-  <si>
-    <t>SiegeCreep</t>
-  </si>
-  <si>
     <t>Tower</t>
   </si>
   <si>
@@ -81,9 +60,6 @@
     <t>SpawnManager</t>
   </si>
   <si>
-    <t>HUD</t>
-  </si>
-  <si>
     <t>Shop</t>
   </si>
   <si>
@@ -111,9 +87,6 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>2DElementen</t>
-  </si>
-  <si>
     <t>Magic</t>
   </si>
   <si>
@@ -288,9 +261,6 @@
     <t>WE_Axe_001</t>
   </si>
   <si>
-    <t>WE_Spear_000</t>
-  </si>
-  <si>
     <t>WE_Greatsword_000</t>
   </si>
   <si>
@@ -372,50 +342,122 @@
     <t>EN_Texture_Jungle_000</t>
   </si>
   <si>
-    <t>REGELS: Hiernaast staat dus onze asset list.</t>
-  </si>
-  <si>
-    <t>Hieronder volgen een paar regels waar  je even aan moet houden</t>
-  </si>
-  <si>
-    <t>Regel 1: Als je nieuwe asset hebt gemaakt zet ze onder NIEUW</t>
-  </si>
-  <si>
-    <t>De producer zal dan jouw nieuwe asset toevoegen</t>
-  </si>
-  <si>
-    <t>In de echte lijst</t>
-  </si>
-  <si>
-    <t>Regel 2: Asset die eindigen met _000, zijn voorbeelden</t>
-  </si>
-  <si>
-    <t>Regel 3: Als je een asset gaat benoemen gebruik kijk dan eerst</t>
-  </si>
-  <si>
-    <t>Of die naam niet al in de lijst staat</t>
-  </si>
-  <si>
-    <t>Regel 4: Wanneer je een asset helemaal af hebt, met</t>
-  </si>
-  <si>
-    <t>Textures, Animaties, Particles enzovoorts. Kleur je het vakje</t>
-  </si>
-  <si>
-    <t>ernaast groen</t>
-  </si>
-  <si>
-    <t>Nieuw:</t>
-  </si>
-  <si>
     <t>Developers Assets</t>
+  </si>
+  <si>
+    <t>AbstractWeapon</t>
+  </si>
+  <si>
+    <t>WeaponMelee</t>
+  </si>
+  <si>
+    <t>WeaponRanged</t>
+  </si>
+  <si>
+    <t>WeaponMagic</t>
+  </si>
+  <si>
+    <t>MinionMelee</t>
+  </si>
+  <si>
+    <t>MinionRanged</t>
+  </si>
+  <si>
+    <t>MinionSuper</t>
+  </si>
+  <si>
+    <t>CreepMelee</t>
+  </si>
+  <si>
+    <t>CreepRanged</t>
+  </si>
+  <si>
+    <t>SiegeUnit</t>
+  </si>
+  <si>
+    <t>HUDManager</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>MapDestruction</t>
+  </si>
+  <si>
+    <t>AbstractMinion</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Roos</t>
+  </si>
+  <si>
+    <t>killian</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Michiel</t>
+  </si>
+  <si>
+    <t>Killian</t>
+  </si>
+  <si>
+    <t>NP_Inhibitor_001</t>
+  </si>
+  <si>
+    <t>Kilian</t>
+  </si>
+  <si>
+    <t>NP_Turret_001</t>
+  </si>
+  <si>
+    <t>WE_Spear_001</t>
+  </si>
+  <si>
+    <t>WE_Spear_002</t>
+  </si>
+  <si>
+    <t>HUD Elementen</t>
+  </si>
+  <si>
+    <t>WE_Axe_002</t>
+  </si>
+  <si>
+    <t>WE_Axe_003</t>
+  </si>
+  <si>
+    <t>WE_Axe_004</t>
+  </si>
+  <si>
+    <t>Zinedine en Sven</t>
+  </si>
+  <si>
+    <t>Zinedine</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Mack</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Harold en Mack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +494,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -462,19 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,18 +530,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -505,37 +561,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -816,629 +859,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="D6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="38" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="51" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="58" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    </row>
+    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>99</v>
       </c>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>101</v>
-      </c>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="86" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A86" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>105</v>
-      </c>
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>108</v>
-      </c>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1448,138 +1500,296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
+      <c r="B29" s="5"/>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Asset Lists/Asset_List_Codes.xlsx
+++ b/Asset Lists/Asset_List_Codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mack\Desktop\Gamelab_3\Asset Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deltion\Derde Jaar\Gamelab_3\Asset Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="170">
   <si>
     <t>Assetlist</t>
   </si>
@@ -150,15 +150,6 @@
     <t>2DE_HUD_Inventory</t>
   </si>
   <si>
-    <t>AR_LightArmourSet_000</t>
-  </si>
-  <si>
-    <t>AR_MediumArmourSet_000</t>
-  </si>
-  <si>
-    <t>AR_HeavyArmourSet_000</t>
-  </si>
-  <si>
     <t>BU_Homebase_001</t>
   </si>
   <si>
@@ -168,15 +159,9 @@
     <t>PC_Male_001</t>
   </si>
   <si>
-    <t>PC_Female_000</t>
-  </si>
-  <si>
     <t>NP_Boss_001</t>
   </si>
   <si>
-    <t>NP_SiegeUnit_000</t>
-  </si>
-  <si>
     <t>NP_Min_Melee_001</t>
   </si>
   <si>
@@ -186,33 +171,9 @@
     <t>NP_Min_Super_001</t>
   </si>
   <si>
-    <t>NP_Creep_Melee_000</t>
-  </si>
-  <si>
-    <t>NP_Creep_Ranged_000</t>
-  </si>
-  <si>
-    <t>NP_Creep_Super_000</t>
-  </si>
-  <si>
     <t>IT_Potion_Health_001</t>
   </si>
   <si>
-    <t>IT_Potion_Stamina_000</t>
-  </si>
-  <si>
-    <t>IT_Throwing_Knife_000</t>
-  </si>
-  <si>
-    <t>IT_Throwing_Axe_000</t>
-  </si>
-  <si>
-    <t>IT_Buff_Strength_000</t>
-  </si>
-  <si>
-    <t>IT_Buff_HealthRegen_000</t>
-  </si>
-  <si>
     <t>LV_MOBA_001</t>
   </si>
   <si>
@@ -255,36 +216,12 @@
     <t>WE_Sword_005</t>
   </si>
   <si>
-    <t>WE_Club_000</t>
-  </si>
-  <si>
     <t>WE_Axe_001</t>
   </si>
   <si>
-    <t>WE_Greatsword_000</t>
-  </si>
-  <si>
     <t>WE_Hammer_000</t>
   </si>
   <si>
-    <t>WE_Dagger_000</t>
-  </si>
-  <si>
-    <t>WE_Bow_000</t>
-  </si>
-  <si>
-    <t>WE_Arrow_000</t>
-  </si>
-  <si>
-    <t>WE_Crossbow_000</t>
-  </si>
-  <si>
-    <t>WE_Bolt_000</t>
-  </si>
-  <si>
-    <t>WE_Gun_000</t>
-  </si>
-  <si>
     <t>WE_Whip_000</t>
   </si>
   <si>
@@ -294,54 +231,9 @@
     <t>WE_Chakram_000</t>
   </si>
   <si>
-    <t>WE_FistWeapon_000</t>
-  </si>
-  <si>
-    <t>WE_Shield_Small_000</t>
-  </si>
-  <si>
-    <t>WE_Shield_Medium_000</t>
-  </si>
-  <si>
-    <t>WE_Shield_Large_000</t>
-  </si>
-  <si>
-    <t>WE_MagicConducter_000</t>
-  </si>
-  <si>
     <t>Magic = MA_</t>
   </si>
   <si>
-    <t>MA_Imperial_000</t>
-  </si>
-  <si>
-    <t>MA_Evocation_000</t>
-  </si>
-  <si>
-    <t>MA_Invocation_000</t>
-  </si>
-  <si>
-    <t>MA_Illosury_000</t>
-  </si>
-  <si>
-    <t>MA_Sacrifial_000</t>
-  </si>
-  <si>
-    <t>MA_Abjuration_000</t>
-  </si>
-  <si>
-    <t>BU_Magic_000</t>
-  </si>
-  <si>
-    <t>NP_Magic_Evocation_000</t>
-  </si>
-  <si>
-    <t>EN_Texture_Lane_000</t>
-  </si>
-  <si>
-    <t>EN_Texture_Jungle_000</t>
-  </si>
-  <si>
     <t>Developers Assets</t>
   </si>
   <si>
@@ -393,9 +285,6 @@
     <t>Roos</t>
   </si>
   <si>
-    <t>killian</t>
-  </si>
-  <si>
     <t>Carlo</t>
   </si>
   <si>
@@ -451,6 +340,201 @@
   </si>
   <si>
     <t>Harold en Mack</t>
+  </si>
+  <si>
+    <t>AR_LightArmourSet_001</t>
+  </si>
+  <si>
+    <t>WE_Greatsword_001</t>
+  </si>
+  <si>
+    <t>WE_Greatsword_002</t>
+  </si>
+  <si>
+    <t>WE_Greatsword_003</t>
+  </si>
+  <si>
+    <t>WE_Gun_004</t>
+  </si>
+  <si>
+    <t>WE_Gun_001</t>
+  </si>
+  <si>
+    <t>WE_Gun_002</t>
+  </si>
+  <si>
+    <t>WE_Gun_003</t>
+  </si>
+  <si>
+    <t>AR_MediumArmourSet_001</t>
+  </si>
+  <si>
+    <t>AR_MediumArmourSet_002</t>
+  </si>
+  <si>
+    <t>WE_Barbell_001</t>
+  </si>
+  <si>
+    <t>Carlo &amp; Roos</t>
+  </si>
+  <si>
+    <t>WE_Barbell_002</t>
+  </si>
+  <si>
+    <t>WE_Barbell_003</t>
+  </si>
+  <si>
+    <t>AR_HeavyArmourSet_001</t>
+  </si>
+  <si>
+    <t>AR_HeavyArmourSet_002</t>
+  </si>
+  <si>
+    <t>NP_SiegeUnit_001</t>
+  </si>
+  <si>
+    <t>NP_Magic_Evocation_001</t>
+  </si>
+  <si>
+    <t>WE_Club_002</t>
+  </si>
+  <si>
+    <t>WE_Club_001</t>
+  </si>
+  <si>
+    <t>WE_Bow_001</t>
+  </si>
+  <si>
+    <t>WE_Arrow_001</t>
+  </si>
+  <si>
+    <t>WE_Crossbow_001</t>
+  </si>
+  <si>
+    <t>WE_Bolt_001</t>
+  </si>
+  <si>
+    <t>WE_FistWeapon_001</t>
+  </si>
+  <si>
+    <t>WE_FistWeapon_002</t>
+  </si>
+  <si>
+    <t>AR_LightArmourSet_002</t>
+  </si>
+  <si>
+    <t>BU_Magic_001</t>
+  </si>
+  <si>
+    <t>BU_Magic_002</t>
+  </si>
+  <si>
+    <t>EN_Texture_Lane_001</t>
+  </si>
+  <si>
+    <t>EN_Texture_Jungle_001</t>
+  </si>
+  <si>
+    <t>IT_Throwing_Axe_001</t>
+  </si>
+  <si>
+    <t>IT_Throwing_Knife_001</t>
+  </si>
+  <si>
+    <t>MA_Invocation_001</t>
+  </si>
+  <si>
+    <t>MA_Invocation_002</t>
+  </si>
+  <si>
+    <t>NP_Boss_002</t>
+  </si>
+  <si>
+    <t>NP_Creep_Melee_001</t>
+  </si>
+  <si>
+    <t>NP_Creep_Melee_002</t>
+  </si>
+  <si>
+    <t>NP_Creep_Ranged_001</t>
+  </si>
+  <si>
+    <t>NP_Creep_Super_001</t>
+  </si>
+  <si>
+    <t>IT_Buff_Strength_001</t>
+  </si>
+  <si>
+    <t>IT_Buff_HealthRegen_001</t>
+  </si>
+  <si>
+    <t>WE_Dagger_001</t>
+  </si>
+  <si>
+    <t>WE_Dagger_002</t>
+  </si>
+  <si>
+    <t>WE_Shield_Medium_001</t>
+  </si>
+  <si>
+    <t>WE_Shield_Small_001</t>
+  </si>
+  <si>
+    <t>WE_Shield_Large_001</t>
+  </si>
+  <si>
+    <t>MA_Sacrifial_001</t>
+  </si>
+  <si>
+    <t>MA_Sacrifial_002</t>
+  </si>
+  <si>
+    <t>MA_Evocation_001</t>
+  </si>
+  <si>
+    <t>MA_Evocation_002</t>
+  </si>
+  <si>
+    <t>NP_Magic_Evocation_002</t>
+  </si>
+  <si>
+    <t>MA_Abjuration_001</t>
+  </si>
+  <si>
+    <t>MA_Abjuration_002</t>
+  </si>
+  <si>
+    <t>PC_Female_001</t>
+  </si>
+  <si>
+    <t>IT_Potion_Stamina_001</t>
+  </si>
+  <si>
+    <t>WE_MagicConducter_001</t>
+  </si>
+  <si>
+    <t>WE_MagicConducter_002</t>
+  </si>
+  <si>
+    <t>WE_MagicConducter_003</t>
+  </si>
+  <si>
+    <t>MA_Imperial_001</t>
+  </si>
+  <si>
+    <t>MA_Imperial_002</t>
+  </si>
+  <si>
+    <t>MA_Imperial_003</t>
+  </si>
+  <si>
+    <t>MA_Illosury_001</t>
+  </si>
+  <si>
+    <t>MA_Illosury_002</t>
+  </si>
+  <si>
+    <t>Voor vragen ga naar Zinedine</t>
   </si>
 </sst>
 </file>
@@ -509,7 +593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +636,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -565,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -579,6 +669,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -859,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +1019,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="1"/>
@@ -978,7 +1069,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
@@ -994,7 +1085,7 @@
     </row>
     <row r="13" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -1003,7 +1094,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E14" s="9"/>
     </row>
@@ -1012,7 +1103,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E15" s="9"/>
     </row>
@@ -1021,7 +1112,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E16" s="9"/>
     </row>
@@ -1030,7 +1121,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -1039,7 +1130,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -1048,7 +1139,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E19" s="9"/>
     </row>
@@ -1061,435 +1152,791 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" t="s">
-        <v>125</v>
+        <v>159</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>19</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>57</v>
+        <v>156</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>134</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>23</v>
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>136</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>145</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>146</v>
+      </c>
+      <c r="D67" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>58</v>
+      </c>
+      <c r="D79" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="D110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>149</v>
+      </c>
+      <c r="D112" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>162</v>
+      </c>
+      <c r="D115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>163</v>
+      </c>
+      <c r="D116" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E121" s="13"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>165</v>
+      </c>
+      <c r="D123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D127" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>100</v>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>168</v>
+      </c>
+      <c r="D130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>153</v>
+      </c>
+      <c r="D132" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>157</v>
+      </c>
+      <c r="D133" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>158</v>
+      </c>
+      <c r="D134" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1502,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,7 +1971,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,7 +1980,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1542,7 +1989,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,43 +1998,43 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,7 +2043,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,7 +2052,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,70 +2061,70 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,7 +2133,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1695,7 +2142,7 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1704,16 +2151,16 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,7 +2169,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,7 +2178,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1740,7 +2187,7 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,7 +2196,7 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,7 +2205,7 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1767,25 +2214,25 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Asset Lists/Asset_List_Codes.xlsx
+++ b/Asset Lists/Asset_List_Codes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deltion\Derde Jaar\Gamelab_3\Asset Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deltion\Derde Jaar\GameLab 3 Mack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Artists" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="174">
   <si>
     <t>Assetlist</t>
   </si>
@@ -213,9 +213,6 @@
     <t>WE_Sword_004</t>
   </si>
   <si>
-    <t>WE_Sword_005</t>
-  </si>
-  <si>
     <t>WE_Axe_001</t>
   </si>
   <si>
@@ -535,6 +532,21 @@
   </si>
   <si>
     <t>Voor vragen ga naar Zinedine</t>
+  </si>
+  <si>
+    <t>WE_Spear_003</t>
+  </si>
+  <si>
+    <t>WE_Spear_004</t>
+  </si>
+  <si>
+    <t>Anthony &amp; Carlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roos</t>
+  </si>
+  <si>
+    <t>2DE_HUD_ShopMenu</t>
   </si>
 </sst>
 </file>
@@ -950,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1081,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
@@ -1085,7 +1097,7 @@
     </row>
     <row r="13" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -1094,7 +1106,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="9"/>
     </row>
@@ -1103,7 +1115,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="9"/>
     </row>
@@ -1112,7 +1124,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="9"/>
     </row>
@@ -1121,7 +1133,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -1130,7 +1142,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -1139,307 +1151,308 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" t="s">
-        <v>87</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
+        <v>104</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
+        <v>112</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
+        <v>113</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
+        <v>44</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
+        <v>46</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" t="s">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" t="s">
-        <v>88</v>
+        <v>140</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>143</v>
       </c>
-      <c r="D48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s">
-        <v>91</v>
+      <c r="D50" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>91</v>
+        <v>155</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" t="s">
         <v>90</v>
       </c>
-      <c r="D54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" t="s">
-        <v>116</v>
+        <v>57</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1448,495 +1461,511 @@
         <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" t="s">
-        <v>91</v>
+        <v>61</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>63</v>
-      </c>
-      <c r="D86" t="s">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" t="s">
-        <v>86</v>
+        <v>97</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92" t="s">
-        <v>87</v>
+        <v>169</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>107</v>
-      </c>
-      <c r="D93" t="s">
-        <v>87</v>
+        <v>170</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" t="s">
-        <v>87</v>
+        <v>105</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>106</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>147</v>
-      </c>
-      <c r="D96" t="s">
-        <v>88</v>
+        <v>107</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>148</v>
-      </c>
-      <c r="D97" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" t="s">
-        <v>91</v>
+        <v>146</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" t="s">
-        <v>91</v>
+        <v>147</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D103" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" t="s">
-        <v>87</v>
+        <v>109</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="D105" t="s">
-        <v>87</v>
+        <v>110</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>111</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>108</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>129</v>
-      </c>
-      <c r="D109" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D111" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D112" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>151</v>
-      </c>
-      <c r="D113" t="s">
-        <v>88</v>
+        <v>149</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>161</v>
-      </c>
-      <c r="D114" t="s">
-        <v>84</v>
+        <v>148</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>162</v>
-      </c>
-      <c r="D115" t="s">
-        <v>84</v>
+        <v>150</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>163</v>
-      </c>
-      <c r="D116" t="s">
-        <v>84</v>
+        <v>160</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="D117" t="s">
-        <v>116</v>
+        <v>161</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="D118" t="s">
-        <v>116</v>
+        <v>162</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="D119" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
+      <c r="D120" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D121" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E121" s="13"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>164</v>
-      </c>
-      <c r="D122" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>165</v>
-      </c>
-      <c r="D123" t="s">
-        <v>84</v>
-      </c>
+      <c r="D123" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>166</v>
-      </c>
-      <c r="D124" t="s">
-        <v>84</v>
+        <v>163</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>138</v>
-      </c>
-      <c r="D125" t="s">
-        <v>85</v>
+        <v>164</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>139</v>
-      </c>
-      <c r="D126" t="s">
-        <v>85</v>
+        <v>165</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>167</v>
-      </c>
-      <c r="D129" t="s">
-        <v>84</v>
+        <v>153</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>168</v>
-      </c>
-      <c r="D130" t="s">
-        <v>84</v>
+        <v>154</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>152</v>
-      </c>
-      <c r="D131" t="s">
-        <v>88</v>
+        <v>166</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>153</v>
-      </c>
-      <c r="D132" t="s">
-        <v>88</v>
+        <v>167</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>157</v>
-      </c>
-      <c r="D133" t="s">
-        <v>88</v>
+        <v>151</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>158</v>
-      </c>
-      <c r="D134" t="s">
-        <v>88</v>
+        <v>152</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>156</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1949,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,7 +1991,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1971,7 +2000,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,7 +2009,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1989,7 +2018,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1998,43 +2027,43 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2043,7 +2072,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,7 +2081,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,70 +2090,70 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,7 +2162,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,7 +2171,7 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,16 +2180,16 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,7 +2198,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2178,7 +2207,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2187,7 +2216,7 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,7 +2225,7 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2205,7 +2234,7 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2214,25 +2243,25 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Asset Lists/Asset_List_Codes.xlsx
+++ b/Asset Lists/Asset_List_Codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deltion\Derde Jaar\GameLab 3 Mack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deltion\Derde Jaar\Gamelab_3\Asset Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="175">
   <si>
     <t>Assetlist</t>
   </si>
@@ -525,12 +525,6 @@
     <t>MA_Imperial_003</t>
   </si>
   <si>
-    <t>MA_Illosury_001</t>
-  </si>
-  <si>
-    <t>MA_Illosury_002</t>
-  </si>
-  <si>
     <t>Voor vragen ga naar Zinedine</t>
   </si>
   <si>
@@ -547,6 +541,15 @@
   </si>
   <si>
     <t>2DE_HUD_ShopMenu</t>
+  </si>
+  <si>
+    <t>Anthony/Michiel</t>
+  </si>
+  <si>
+    <t>MA_Illusory_001</t>
+  </si>
+  <si>
+    <t>MA_Illusory_002</t>
   </si>
 </sst>
 </file>
@@ -964,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1160,7 @@
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -1278,7 +1281,7 @@
         <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,7 +1289,7 @@
         <v>158</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1416,7 +1419,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,7 +1435,7 @@
         <v>134</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1629,7 +1632,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>83</v>
@@ -1637,7 +1640,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>83</v>
@@ -1677,7 +1680,7 @@
         <v>146</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,7 +1688,7 @@
         <v>147</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,7 +1791,7 @@
         <v>149</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -1796,7 +1799,7 @@
         <v>148</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,7 +1807,7 @@
         <v>150</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E123" s="13"/>
     </row>
@@ -1922,7 +1925,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>83</v>
@@ -1930,7 +1933,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>83</v>

--- a/Asset Lists/Asset_List_Codes.xlsx
+++ b/Asset Lists/Asset_List_Codes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deltion\Derde Jaar\Gamelab_3\Asset Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deltion\Derde Jaar\GameLab 3 Mack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Artists" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="151">
   <si>
     <t>Assetlist</t>
   </si>
@@ -150,57 +150,18 @@
     <t>2DE_HUD_Inventory</t>
   </si>
   <si>
-    <t>BU_Homebase_001</t>
-  </si>
-  <si>
     <t>PlayerCharacter</t>
   </si>
   <si>
     <t>PC_Male_001</t>
   </si>
   <si>
-    <t>NP_Boss_001</t>
-  </si>
-  <si>
-    <t>NP_Min_Melee_001</t>
-  </si>
-  <si>
-    <t>NP_Min_Ranged_001</t>
-  </si>
-  <si>
-    <t>NP_Min_Super_001</t>
-  </si>
-  <si>
     <t>IT_Potion_Health_001</t>
   </si>
   <si>
-    <t>LV_MOBA_001</t>
-  </si>
-  <si>
-    <t>LV_CaptureFlag_001</t>
-  </si>
-  <si>
-    <t>LV_Siege_001</t>
-  </si>
-  <si>
-    <t>LV_BattleRoyale_001</t>
-  </si>
-  <si>
-    <t>LV_KingHill_001</t>
-  </si>
-  <si>
-    <t>BU_Shop_Normal_001</t>
-  </si>
-  <si>
-    <t>BU_Shop_Siege_001</t>
-  </si>
-  <si>
     <t>Environment = EN_</t>
   </si>
   <si>
-    <t>EN_Jungle_000</t>
-  </si>
-  <si>
     <t>WE_Sword_001</t>
   </si>
   <si>
@@ -216,18 +177,6 @@
     <t>WE_Axe_001</t>
   </si>
   <si>
-    <t>WE_Hammer_000</t>
-  </si>
-  <si>
-    <t>WE_Whip_000</t>
-  </si>
-  <si>
-    <t>WE_Boomerang_000</t>
-  </si>
-  <si>
-    <t>WE_Chakram_000</t>
-  </si>
-  <si>
     <t>Magic = MA_</t>
   </si>
   <si>
@@ -291,18 +240,9 @@
     <t>Michiel</t>
   </si>
   <si>
-    <t>Killian</t>
-  </si>
-  <si>
-    <t>NP_Inhibitor_001</t>
-  </si>
-  <si>
     <t>Kilian</t>
   </si>
   <si>
-    <t>NP_Turret_001</t>
-  </si>
-  <si>
     <t>WE_Spear_001</t>
   </si>
   <si>
@@ -387,18 +327,6 @@
     <t>AR_HeavyArmourSet_002</t>
   </si>
   <si>
-    <t>NP_SiegeUnit_001</t>
-  </si>
-  <si>
-    <t>NP_Magic_Evocation_001</t>
-  </si>
-  <si>
-    <t>WE_Club_002</t>
-  </si>
-  <si>
-    <t>WE_Club_001</t>
-  </si>
-  <si>
     <t>WE_Bow_001</t>
   </si>
   <si>
@@ -420,18 +348,6 @@
     <t>AR_LightArmourSet_002</t>
   </si>
   <si>
-    <t>BU_Magic_001</t>
-  </si>
-  <si>
-    <t>BU_Magic_002</t>
-  </si>
-  <si>
-    <t>EN_Texture_Lane_001</t>
-  </si>
-  <si>
-    <t>EN_Texture_Jungle_001</t>
-  </si>
-  <si>
     <t>IT_Throwing_Axe_001</t>
   </si>
   <si>
@@ -444,21 +360,6 @@
     <t>MA_Invocation_002</t>
   </si>
   <si>
-    <t>NP_Boss_002</t>
-  </si>
-  <si>
-    <t>NP_Creep_Melee_001</t>
-  </si>
-  <si>
-    <t>NP_Creep_Melee_002</t>
-  </si>
-  <si>
-    <t>NP_Creep_Ranged_001</t>
-  </si>
-  <si>
-    <t>NP_Creep_Super_001</t>
-  </si>
-  <si>
     <t>IT_Buff_Strength_001</t>
   </si>
   <si>
@@ -471,36 +372,12 @@
     <t>WE_Dagger_002</t>
   </si>
   <si>
-    <t>WE_Shield_Medium_001</t>
-  </si>
-  <si>
-    <t>WE_Shield_Small_001</t>
-  </si>
-  <si>
-    <t>WE_Shield_Large_001</t>
-  </si>
-  <si>
-    <t>MA_Sacrifial_001</t>
-  </si>
-  <si>
-    <t>MA_Sacrifial_002</t>
-  </si>
-  <si>
     <t>MA_Evocation_001</t>
   </si>
   <si>
     <t>MA_Evocation_002</t>
   </si>
   <si>
-    <t>NP_Magic_Evocation_002</t>
-  </si>
-  <si>
-    <t>MA_Abjuration_001</t>
-  </si>
-  <si>
-    <t>MA_Abjuration_002</t>
-  </si>
-  <si>
     <t>PC_Female_001</t>
   </si>
   <si>
@@ -534,22 +411,73 @@
     <t>WE_Spear_004</t>
   </si>
   <si>
-    <t>Anthony &amp; Carlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roos</t>
-  </si>
-  <si>
     <t>2DE_HUD_ShopMenu</t>
   </si>
   <si>
     <t>Anthony/Michiel</t>
   </si>
   <si>
-    <t>MA_Illusory_001</t>
-  </si>
-  <si>
-    <t>MA_Illusory_002</t>
+    <t>Carlo&amp;Anthony</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>2DE_HUD_Gold</t>
+  </si>
+  <si>
+    <t>Roos (Alle wapens)</t>
+  </si>
+  <si>
+    <t>Roos (Alle armors)</t>
+  </si>
+  <si>
+    <t>2DE_HUD_ArmorIcons</t>
+  </si>
+  <si>
+    <t>2DE_HUD_WeaponIcons</t>
+  </si>
+  <si>
+    <t>LE_Arena_001</t>
+  </si>
+  <si>
+    <t>Bu_Destructible_001</t>
+  </si>
+  <si>
+    <t>EN_GitGudChest_001</t>
+  </si>
+  <si>
+    <t>2DE_Achievements</t>
+  </si>
+  <si>
+    <t>2DE_PowerUpTree_001</t>
+  </si>
+  <si>
+    <t>2DE_PowerUpTree_002</t>
+  </si>
+  <si>
+    <t>2DE_PowerUpTree_003</t>
+  </si>
+  <si>
+    <t>Roos (Alle items)</t>
+  </si>
+  <si>
+    <t>2DE_HUD_ItemIcons</t>
+  </si>
+  <si>
+    <t>NP_Demonic_001</t>
+  </si>
+  <si>
+    <t>NP_Demonic_002</t>
+  </si>
+  <si>
+    <t>NP_Demonic_003</t>
   </si>
 </sst>
 </file>
@@ -608,7 +536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +585,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -670,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -685,6 +631,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -965,16 +914,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
@@ -985,6 +934,9 @@
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B1" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="E1" s="10"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -995,6 +947,9 @@
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="E2" s="10"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1004,6 +959,9 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="1"/>
@@ -1034,7 +992,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="1"/>
@@ -1084,7 +1042,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="1"/>
@@ -1100,875 +1058,911 @@
     </row>
     <row r="13" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="B14" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="B31" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>55</v>
+      <c r="A33" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>132</v>
+      <c r="A35" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>139</v>
+      <c r="B43" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>117</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>140</v>
+      <c r="A47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>150</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" t="s">
-        <v>90</v>
+      <c r="A54" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>19</v>
+      <c r="A55" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>111</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="B80" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>59</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>60</v>
+      <c r="B82" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>61</v>
+      <c r="A83" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B90" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" s="13"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>122</v>
-      </c>
-      <c r="D85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>96</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>168</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>105</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>107</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>146</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B104" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D100" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>125</v>
-      </c>
-      <c r="D101" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>126</v>
-      </c>
-      <c r="D102" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>127</v>
-      </c>
-      <c r="D103" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B105" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B106" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>111</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>128</v>
-      </c>
-      <c r="D111" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>129</v>
-      </c>
-      <c r="D112" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>149</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>148</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>150</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>160</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>161</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>162</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>114</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="B107" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B108" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>117</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E123" s="13"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>163</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>164</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>165</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>137</v>
-      </c>
-      <c r="D127" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>138</v>
-      </c>
-      <c r="D128" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>153</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>154</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>173</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>174</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>151</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>152</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>156</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>157</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>87</v>
+      <c r="B109" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1994,7 +1988,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2003,7 +1997,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,7 +2006,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2021,7 +2015,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,43 +2024,43 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2075,7 +2069,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2084,7 +2078,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2093,70 +2087,70 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,7 +2159,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,7 +2168,7 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2183,16 +2177,16 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2201,7 +2195,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2210,7 +2204,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2219,7 +2213,7 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,7 +2222,7 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2237,7 +2231,7 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,25 +2240,25 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Asset Lists/Asset_List_Codes.xlsx
+++ b/Asset Lists/Asset_List_Codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deltion\Derde Jaar\GameLab 3 Mack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deltion\Derde Jaar\Gamelab_3\Asset Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="158">
   <si>
     <t>Assetlist</t>
   </si>
@@ -447,12 +447,6 @@
     <t>LE_Arena_001</t>
   </si>
   <si>
-    <t>Bu_Destructible_001</t>
-  </si>
-  <si>
-    <t>EN_GitGudChest_001</t>
-  </si>
-  <si>
     <t>2DE_Achievements</t>
   </si>
   <si>
@@ -478,6 +472,33 @@
   </si>
   <si>
     <t>NP_Demonic_003</t>
+  </si>
+  <si>
+    <t>Michiel/Anthony</t>
+  </si>
+  <si>
+    <t>Kevin of iemand anders</t>
+  </si>
+  <si>
+    <t>moet nog even besproken worden</t>
+  </si>
+  <si>
+    <t>Michiel (gaan we buffs erin houden? Vraag aan zine of iemand anders)</t>
+  </si>
+  <si>
+    <t>PR_GitGudChest_001</t>
+  </si>
+  <si>
+    <t>PR_Shop_001</t>
+  </si>
+  <si>
+    <t>PR_Shop_002</t>
+  </si>
+  <si>
+    <t>BU_Destructible_001</t>
+  </si>
+  <si>
+    <t>BU_ControlPoint_001</t>
   </si>
 </sst>
 </file>
@@ -536,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,12 +618,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -616,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -633,7 +648,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -914,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1173,7 @@
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1171,7 +1185,7 @@
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1183,20 +1197,20 @@
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>147</v>
+      <c r="A24" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
-        <v>142</v>
+      <c r="A25" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>133</v>
@@ -1207,8 +1221,8 @@
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
-        <v>143</v>
+      <c r="A26" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>133</v>
@@ -1219,8 +1233,8 @@
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
-        <v>144</v>
+      <c r="A27" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>133</v>
@@ -1231,8 +1245,8 @@
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>145</v>
+      <c r="A28" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>133</v>
@@ -1287,11 +1301,11 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>133</v>
+      <c r="B34" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>68</v>
@@ -1326,7 +1340,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>133</v>
@@ -1336,7 +1350,15 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
+      <c r="A40" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
@@ -1371,8 +1393,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>148</v>
+      <c r="A47" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>131</v>
@@ -1382,19 +1404,19 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>149</v>
+      <c r="A48" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>150</v>
+      <c r="A49" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>132</v>
@@ -1465,7 +1487,7 @@
         <v>133</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1476,7 +1498,7 @@
         <v>133</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
@@ -1502,7 +1524,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>131</v>
@@ -1511,36 +1533,36 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>131</v>
@@ -1551,40 +1573,40 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>131</v>
@@ -1595,7 +1617,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>131</v>
@@ -1606,76 +1628,76 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D76" t="s">
-        <v>71</v>
+      <c r="D76" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D77" t="s">
-        <v>71</v>
+      <c r="D77" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>66</v>
+      <c r="D78" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>66</v>
+      <c r="D79" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>132</v>
+        <v>85</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>69</v>
@@ -1683,10 +1705,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>131</v>
+        <v>86</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>69</v>
@@ -1694,10 +1716,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>131</v>
+        <v>87</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>69</v>
@@ -1705,29 +1727,29 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D85" t="s">
-        <v>71</v>
+      <c r="D85" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D86" t="s">
-        <v>71</v>
+      <c r="D86" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>131</v>
@@ -1738,7 +1760,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>131</v>
@@ -1749,32 +1771,32 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>69</v>
+        <v>102</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>132</v>
+        <v>89</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>69</v>
@@ -1782,10 +1804,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>132</v>
+        <v>90</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>69</v>
@@ -1793,54 +1815,54 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" t="s">
-        <v>71</v>
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D94" t="s">
-        <v>71</v>
+        <v>88</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>66</v>
+      <c r="D95" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>66</v>
+        <v>105</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>66</v>
@@ -1848,74 +1870,74 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>133</v>
+        <v>94</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D104" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E102" s="13"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>66</v>
@@ -1923,46 +1945,71 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D106" t="s">
-        <v>67</v>
+        <v>123</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D107" t="s">
-        <v>67</v>
+        <v>124</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D108" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>69</v>
+      <c r="D109" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E111" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
